--- a/assets/application_rates.xlsx
+++ b/assets/application_rates.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0081283D-63BB-4ECA-9B92-51DA01AB6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65961\Documents\git_projects\sbf_2025\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCEA36-C218-4D02-A706-B340EF5A39A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025FEB" sheetId="1" r:id="rId1"/>
@@ -131,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -553,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -576,7 +581,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -599,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -622,7 +627,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -645,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -668,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -691,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -714,7 +719,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -737,7 +742,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -760,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -783,7 +788,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -806,7 +811,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -829,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -852,7 +857,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -875,7 +880,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -898,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -921,7 +926,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -944,7 +949,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -967,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -990,7 +995,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1091,11 +1096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA1EA57-6A77-453C-9C35-DA3F82147C81}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1103,7 +1108,7 @@
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1134,22 +1139,22 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="F2">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1157,22 +1162,22 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <v>214</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>76</v>
       </c>
       <c r="G3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1180,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
         <v>48</v>
       </c>
       <c r="E4">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1195,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1209,16 +1214,16 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1226,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1241,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1264,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1287,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1295,22 +1300,22 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
         <v>133</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1318,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -1333,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1341,22 +1346,22 @@
         <v>89</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <v>378</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1364,22 +1369,22 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1387,22 +1392,22 @@
         <v>63</v>
       </c>
       <c r="C13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
         <v>178</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>52</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1410,13 +1415,13 @@
         <v>97</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>601</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1425,7 +1430,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1448,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1456,22 +1461,22 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>83</v>
       </c>
       <c r="E17">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1494,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1517,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1540,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1571,22 +1576,22 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D21">
         <v>85</v>
       </c>
       <c r="E21">
-        <v>4.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F21">
         <v>42</v>
       </c>
       <c r="G21">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1594,22 +1599,22 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>289</v>
       </c>
       <c r="E22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>161</v>
       </c>
       <c r="G22">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1617,13 +1622,13 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
         <v>68</v>
       </c>
       <c r="E23">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1632,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1646,16 +1651,16 @@
         <v>126</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F24">
         <v>52</v>
       </c>
       <c r="G24">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1663,19 +1668,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D25">
         <v>49</v>
       </c>
       <c r="E25">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>37</v>
       </c>
       <c r="G25">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/application_rates.xlsx
+++ b/assets/application_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65961\Documents\git_projects\sbf_2025\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCEA36-C218-4D02-A706-B340EF5A39A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFB89C-F8D4-400D-8F14-811796028411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA1EA57-6A77-453C-9C35-DA3F82147C81}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,19 +1139,19 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
       <c r="E2">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F2">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,19 +1162,19 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
         <v>214</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F3">
         <v>76</v>
       </c>
       <c r="G3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D4">
         <v>48</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>133</v>
       </c>
       <c r="E9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,13 +1329,13 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,19 +1346,19 @@
         <v>89</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
         <v>378</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,19 +1369,19 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>7.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>63</v>
       </c>
       <c r="C13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D13">
         <v>178</v>
@@ -1404,7 +1404,7 @@
         <v>52</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1421,13 +1421,13 @@
         <v>601</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1461,19 +1461,19 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,13 +1484,13 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D17">
         <v>83</v>
       </c>
       <c r="E17">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D21">
         <v>85</v>
       </c>
       <c r="E21">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="F21">
         <v>42</v>
       </c>
       <c r="G21">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D22">
         <v>289</v>
@@ -1611,7 +1611,7 @@
         <v>161</v>
       </c>
       <c r="G22">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="E23">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1645,19 +1645,19 @@
         <v>133</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D24">
         <v>126</v>
       </c>
       <c r="E24">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F24">
         <v>52</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,19 +1668,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>49</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F25">
         <v>37</v>
       </c>
       <c r="G25">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
